--- a/data/published/2019_Seale-CarlisleColloffFloweWellsWixtedMickes/testOutput.xlsx
+++ b/data/published/2019_Seale-CarlisleColloffFloweWellsWixtedMickes/testOutput.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="17520" yWindow="8780" windowWidth="33100" windowHeight="19140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1720" yWindow="6840" windowWidth="47500" windowHeight="18900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -446,17 +446,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
     <col width="18.83203125" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="35" bestFit="1" customWidth="1" style="2" min="2" max="7"/>
-    <col width="10.83203125" customWidth="1" style="2" min="8" max="16384"/>
+    <col width="18.83203125" customWidth="1" style="2" min="2" max="3"/>
+    <col width="35" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
+    <col width="18.83203125" customWidth="1" style="2" min="6" max="7"/>
+    <col width="35" bestFit="1" customWidth="1" style="2" min="8" max="11"/>
+    <col width="10.83203125" customWidth="1" style="2" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -495,6 +498,26 @@
           <t>published_SealeCarlisle_Colloff_Flowe_etal_2019()</t>
         </is>
       </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Colloff_Flowe_etal_2019()</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Colloff_Flowe_etal_2019()</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Colloff_Flowe_etal_2019()</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Colloff_Flowe_etal_2019()</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -502,32 +525,52 @@
           <t>Model fit</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IndependentObservationSimple</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IndependentObservationSimple</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>IndependentObservation</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>IndependentObservation</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BestRest</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BestRest</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>Ensemble</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>Ensemble</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
@@ -569,6 +612,26 @@
           <t>UnequalVariance</t>
         </is>
       </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +665,26 @@
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>{"exclude":1}</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>{"exclude":1}</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>{"exclude":1}</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>{"exclude":1}</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>{"exclude":1}</t>
         </is>
@@ -619,6 +702,10 @@
       <c r="E5" s="4" t="n"/>
       <c r="F5" s="4" t="n"/>
       <c r="G5" s="4" t="n"/>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -656,6 +743,26 @@
           <t>[-1,60,80,100]</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
     </row>
     <row r="7" customFormat="1" s="5">
       <c r="A7" s="5" t="inlineStr">
@@ -693,6 +800,26 @@
           <t>True</t>
         </is>
       </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -718,6 +845,18 @@
       <c r="G8" s="4" t="n">
         <v>2000</v>
       </c>
+      <c r="H8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -725,6 +864,10 @@
           <t>Model parameter</t>
         </is>
       </c>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -750,6 +893,18 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -775,6 +930,18 @@
       <c r="G11" t="n">
         <v>1</v>
       </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -783,21 +950,33 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>1.949384092290567</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.962166560587498</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.801740725492587</v>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>1.893002053876343</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
+        <v>2.038559495250393</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.039980802533913</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.038561773653191</v>
       </c>
-      <c r="E12" t="n">
+      <c r="I12" t="n">
         <v>2.039965966326776</v>
       </c>
-      <c r="F12" t="n">
+      <c r="J12" t="n">
         <v>2.552257061966896</v>
       </c>
-      <c r="G12" t="n">
+      <c r="K12" t="n">
         <v>2.738555552292136</v>
       </c>
     </row>
@@ -811,18 +990,30 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7863431122509816</v>
+        <v>0.7418009072407139</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6119370314385404</v>
+        <v>0.7863431122509816</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
+        <v>0.6119051815173132</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6119370314385404</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>1.443815640366027</v>
       </c>
     </row>
@@ -833,21 +1024,33 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09660722688871171</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.6027044896553803</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>0.4442159870153564</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.09712853635673074</v>
       </c>
       <c r="F14" t="n">
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
+        <v>0.08827963404445592</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.09712853635673074</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.356116178147332e-06</v>
       </c>
     </row>
@@ -858,21 +1061,33 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09660722688871171</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.6027044896553803</v>
       </c>
-      <c r="C15" t="n">
+      <c r="E15" t="n">
         <v>0.4442159870153564</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.09712853635673074</v>
       </c>
       <c r="F15" t="n">
         <v>0.1</v>
       </c>
       <c r="G15" t="n">
+        <v>0.08827963404445592</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.09712853635673074</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.356116178147332e-06</v>
       </c>
     </row>
@@ -883,21 +1098,33 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1.619462834038069</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.651538845786442</v>
+      </c>
+      <c r="D16" t="n">
         <v>1.402390986859866</v>
       </c>
-      <c r="C16" t="n">
+      <c r="E16" t="n">
         <v>1.536556137932538</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
+        <v>1.734411756044055</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.753999669200451</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.445296682437051</v>
       </c>
-      <c r="E16" t="n">
+      <c r="I16" t="n">
         <v>1.461681833394633</v>
       </c>
-      <c r="F16" t="n">
+      <c r="J16" t="n">
         <v>1.223603698812102</v>
       </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
         <v>1.277122763631823</v>
       </c>
     </row>
@@ -908,21 +1135,33 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>2.102596556325723</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.080360909295786</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.936736227625282</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
         <v>2.003635359210298</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
+        <v>2.212454506209515</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.168006506626723</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.843654775302298</v>
       </c>
-      <c r="E17" t="n">
+      <c r="I17" t="n">
         <v>1.806701072025047</v>
       </c>
-      <c r="F17" t="n">
+      <c r="J17" t="n">
         <v>2.805647528562986</v>
       </c>
-      <c r="G17" t="n">
+      <c r="K17" t="n">
         <v>2.898997638238558</v>
       </c>
     </row>
@@ -933,21 +1172,33 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>2.796896571075951</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.664745914047137</v>
+      </c>
+      <c r="D18" t="n">
         <v>2.678959653857374</v>
       </c>
-      <c r="C18" t="n">
+      <c r="E18" t="n">
         <v>2.631192001880515</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
+        <v>2.949316479161875</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.75990934198476</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.457737634712578</v>
       </c>
-      <c r="E18" t="n">
+      <c r="I18" t="n">
         <v>2.29992075513701</v>
       </c>
-      <c r="F18" t="n">
+      <c r="J18" t="n">
         <v>4.883542270435312</v>
       </c>
-      <c r="G18" t="n">
+      <c r="K18" t="n">
         <v>5.068833885144244</v>
       </c>
     </row>
@@ -1042,21 +1293,33 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>72</v>
+      </c>
+      <c r="C31" t="n">
+        <v>122</v>
+      </c>
+      <c r="D31" t="n">
         <v>188</v>
       </c>
-      <c r="C31" t="n">
+      <c r="E31" t="n">
         <v>341</v>
       </c>
-      <c r="D31" t="n">
+      <c r="F31" t="n">
+        <v>104</v>
+      </c>
+      <c r="G31" t="n">
+        <v>141</v>
+      </c>
+      <c r="H31" t="n">
         <v>95</v>
       </c>
-      <c r="E31" t="n">
+      <c r="I31" t="n">
         <v>171</v>
       </c>
-      <c r="F31" t="n">
+      <c r="J31" t="n">
         <v>122</v>
       </c>
-      <c r="G31" t="n">
+      <c r="K31" t="n">
         <v>463</v>
       </c>
     </row>
@@ -1067,22 +1330,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.543001952</v>
+        <v>10.94370481099986</v>
       </c>
       <c r="C32" t="n">
-        <v>29.19511096</v>
+        <v>24.71616640399998</v>
       </c>
       <c r="D32" t="n">
-        <v>24.15261659000001</v>
+        <v>14.61229732300012</v>
       </c>
       <c r="E32" t="n">
-        <v>38.54428055300001</v>
+        <v>28.68587037400016</v>
       </c>
       <c r="F32" t="n">
-        <v>32.40689206000002</v>
+        <v>25.23727925000003</v>
       </c>
       <c r="G32" t="n">
-        <v>111.59025587</v>
+        <v>31.24883621799995</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22.41897269499987</v>
+      </c>
+      <c r="I32" t="n">
+        <v>35.71793841299996</v>
+      </c>
+      <c r="J32" t="n">
+        <v>30.38594991499986</v>
+      </c>
+      <c r="K32" t="n">
+        <v>103.685230113</v>
       </c>
     </row>
     <row r="33">
@@ -1092,21 +1367,33 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>20.13707148215493</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.636005272765546</v>
+      </c>
+      <c r="D33" t="n">
         <v>10.4282037022842</v>
       </c>
-      <c r="C33" t="n">
+      <c r="E33" t="n">
         <v>4.502249604793363</v>
       </c>
-      <c r="D33" t="n">
+      <c r="F33" t="n">
+        <v>23.44999896498145</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.95061854582238</v>
+      </c>
+      <c r="H33" t="n">
         <v>23.44999984652043</v>
       </c>
-      <c r="E33" t="n">
+      <c r="I33" t="n">
         <v>7.950618779001013</v>
       </c>
-      <c r="F33" t="n">
+      <c r="J33" t="n">
         <v>13.86182820860041</v>
       </c>
-      <c r="G33" t="n">
+      <c r="K33" t="n">
         <v>7.411254473971693</v>
       </c>
     </row>
@@ -1117,13 +1404,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
@@ -1134,6 +1421,18 @@
       <c r="G34" t="n">
         <v>3</v>
       </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1142,21 +1441,33 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>4.027414296430987</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.878668424255182</v>
+      </c>
+      <c r="D35" t="n">
         <v>2.607050925571051</v>
       </c>
-      <c r="C35" t="n">
+      <c r="E35" t="n">
         <v>1.500749868264454</v>
       </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
+        <v>4.689999792996291</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.650206181940793</v>
+      </c>
+      <c r="H35" t="n">
         <v>4.689999969304086</v>
       </c>
-      <c r="E35" t="n">
+      <c r="I35" t="n">
         <v>2.650206259667005</v>
       </c>
-      <c r="F35" t="n">
+      <c r="J35" t="n">
         <v>2.772365641720083</v>
       </c>
-      <c r="G35" t="n">
+      <c r="K35" t="n">
         <v>2.470418157990564</v>
       </c>
     </row>
@@ -1166,6 +1477,10 @@
           <t>Descriptive stats</t>
         </is>
       </c>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1191,6 +1506,18 @@
       <c r="G37" t="n">
         <v>890</v>
       </c>
+      <c r="H37" t="n">
+        <v>890</v>
+      </c>
+      <c r="I37" t="n">
+        <v>890</v>
+      </c>
+      <c r="J37" t="n">
+        <v>890</v>
+      </c>
+      <c r="K37" t="n">
+        <v>890</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1216,6 +1543,18 @@
       <c r="G38" t="n">
         <v>443</v>
       </c>
+      <c r="H38" t="n">
+        <v>443</v>
+      </c>
+      <c r="I38" t="n">
+        <v>443</v>
+      </c>
+      <c r="J38" t="n">
+        <v>443</v>
+      </c>
+      <c r="K38" t="n">
+        <v>443</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1241,6 +1580,18 @@
       <c r="G39" t="n">
         <v>447</v>
       </c>
+      <c r="H39" t="n">
+        <v>447</v>
+      </c>
+      <c r="I39" t="n">
+        <v>447</v>
+      </c>
+      <c r="J39" t="n">
+        <v>447</v>
+      </c>
+      <c r="K39" t="n">
+        <v>447</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1266,6 +1617,18 @@
       <c r="G40" t="n">
         <v>0.6196868008948546</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.6196868008948546</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.6196868008948546</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6196868008948546</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.6196868008948546</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1291,6 +1654,18 @@
       <c r="G41" t="n">
         <v>0.0474040632054176</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.0474040632054176</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0474040632054176</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0474040632054176</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0474040632054176</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1316,6 +1691,18 @@
       <c r="G42" t="n">
         <v>1.940776199167768</v>
       </c>
+      <c r="H42" t="n">
+        <v>1.940776199167768</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.940776199167768</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.940776199167768</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.940776199167768</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1339,6 +1726,18 @@
         <v>0.02075013884523393</v>
       </c>
       <c r="G43" t="n">
+        <v>0.02075013884523393</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.02075013884523393</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.02075013884523393</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.02075013884523393</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.02075013884523393</v>
       </c>
     </row>
